--- a/TouristsNumbers.xlsx
+++ b/TouristsNumbers.xlsx
@@ -16,6 +16,9 @@
     <sheet name="template_rse" sheetId="5" state="hidden" r:id="rId2"/>
     <sheet name="format" sheetId="2" state="hidden" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Data Sheet 0'!$A$1:$D$131</definedName>
+  </definedNames>
   <calcPr calcId="114210"/>
 </workbook>
 </file>
@@ -59,9 +62,6 @@
     <t>Berlin</t>
   </si>
   <si>
-    <t>07  Tempelhof-Schöneberg</t>
-  </si>
-  <si>
     <t>Tourists</t>
   </si>
   <si>
@@ -71,13 +71,7 @@
     <t>Mitte</t>
   </si>
   <si>
-    <t>FriedrichshainKreuzberg</t>
-  </si>
-  <si>
     <t>Pankow</t>
-  </si>
-  <si>
-    <t>CharlottenburgWilmersdorf</t>
   </si>
   <si>
     <t>Spandau</t>
@@ -105,6 +99,15 @@
   </si>
   <si>
     <t>Year</t>
+  </si>
+  <si>
+    <t>Charlottenburg-Wilmersdorf</t>
+  </si>
+  <si>
+    <t>Friedrichshain-Kreuzberg</t>
+  </si>
+  <si>
+    <t>Tempelhof-Schöneberg</t>
   </si>
 </sst>
 </file>
@@ -413,7 +416,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <protection locked="0"/>
     </xf>
@@ -504,11 +507,14 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -575,7 +581,7 @@
         <xdr:cNvPr id="5" name="Grafik 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -899,14 +905,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
+      <selection activeCell="A73" sqref="A73:A81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.44140625" style="26" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.6640625" style="23"/>
     <col min="4" max="4" width="9.5546875" style="23" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="15.6640625" style="3"/>
@@ -914,23 +920,23 @@
   <sheetData>
     <row r="1" spans="1:4" ht="17.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B1" s="25" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C1" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="23" t="s">
         <v>13</v>
-      </c>
-      <c r="D1" s="23" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="26">
+      <c r="B2" s="27">
         <v>2019</v>
       </c>
       <c r="C2" s="24">
@@ -944,7 +950,7 @@
       <c r="A3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="26">
+      <c r="B3" s="27">
         <v>2018</v>
       </c>
       <c r="C3" s="24">
@@ -958,7 +964,7 @@
       <c r="A4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="26">
+      <c r="B4" s="27">
         <v>2017</v>
       </c>
       <c r="C4" s="24">
@@ -972,7 +978,7 @@
       <c r="A5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="26">
+      <c r="B5" s="27">
         <v>2016</v>
       </c>
       <c r="C5" s="24">
@@ -986,7 +992,7 @@
       <c r="A6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="26">
+      <c r="B6" s="27">
         <v>2015</v>
       </c>
       <c r="C6" s="24">
@@ -1000,7 +1006,7 @@
       <c r="A7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="26">
+      <c r="B7" s="27">
         <v>2014</v>
       </c>
       <c r="C7" s="24">
@@ -1014,7 +1020,7 @@
       <c r="A8" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="26">
+      <c r="B8" s="27">
         <v>2013</v>
       </c>
       <c r="C8" s="24">
@@ -1028,7 +1034,7 @@
       <c r="A9" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="26">
+      <c r="B9" s="27">
         <v>2012</v>
       </c>
       <c r="C9" s="24">
@@ -1042,7 +1048,7 @@
       <c r="A10" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="26">
+      <c r="B10" s="27">
         <v>2011</v>
       </c>
       <c r="C10" s="24">
@@ -1056,7 +1062,7 @@
       <c r="A11" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="26">
+      <c r="B11" s="27">
         <v>2010</v>
       </c>
       <c r="C11" s="24">
@@ -1068,9 +1074,9 @@
     </row>
     <row r="12" spans="1:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" s="26">
+        <v>14</v>
+      </c>
+      <c r="B12" s="27">
         <v>2019</v>
       </c>
       <c r="C12" s="24">
@@ -1082,9 +1088,9 @@
     </row>
     <row r="13" spans="1:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" s="26">
+        <v>14</v>
+      </c>
+      <c r="B13" s="27">
         <v>2018</v>
       </c>
       <c r="C13" s="24">
@@ -1096,9 +1102,9 @@
     </row>
     <row r="14" spans="1:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" s="26">
+        <v>14</v>
+      </c>
+      <c r="B14" s="27">
         <v>2017</v>
       </c>
       <c r="C14" s="24">
@@ -1110,9 +1116,9 @@
     </row>
     <row r="15" spans="1:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" s="26">
+        <v>14</v>
+      </c>
+      <c r="B15" s="27">
         <v>2016</v>
       </c>
       <c r="C15" s="24">
@@ -1124,9 +1130,9 @@
     </row>
     <row r="16" spans="1:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16" s="26">
+        <v>14</v>
+      </c>
+      <c r="B16" s="27">
         <v>2015</v>
       </c>
       <c r="C16" s="24">
@@ -1138,9 +1144,9 @@
     </row>
     <row r="17" spans="1:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" s="26">
+        <v>14</v>
+      </c>
+      <c r="B17" s="27">
         <v>2014</v>
       </c>
       <c r="C17" s="24">
@@ -1152,9 +1158,9 @@
     </row>
     <row r="18" spans="1:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B18" s="26">
+        <v>14</v>
+      </c>
+      <c r="B18" s="27">
         <v>2013</v>
       </c>
       <c r="C18" s="24">
@@ -1166,9 +1172,9 @@
     </row>
     <row r="19" spans="1:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B19" s="26">
+        <v>14</v>
+      </c>
+      <c r="B19" s="27">
         <v>2012</v>
       </c>
       <c r="C19" s="24">
@@ -1180,9 +1186,9 @@
     </row>
     <row r="20" spans="1:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B20" s="26">
+        <v>14</v>
+      </c>
+      <c r="B20" s="27">
         <v>2011</v>
       </c>
       <c r="C20" s="24">
@@ -1194,9 +1200,9 @@
     </row>
     <row r="21" spans="1:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B21" s="26">
+        <v>14</v>
+      </c>
+      <c r="B21" s="27">
         <v>2010</v>
       </c>
       <c r="C21" s="24">
@@ -1207,10 +1213,10 @@
       </c>
     </row>
     <row r="22" spans="1:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B22" s="26">
+      <c r="A22" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22" s="27">
         <v>2019</v>
       </c>
       <c r="C22" s="24">
@@ -1221,10 +1227,10 @@
       </c>
     </row>
     <row r="23" spans="1:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B23" s="26">
+      <c r="A23" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23" s="27">
         <v>2018</v>
       </c>
       <c r="C23" s="24">
@@ -1235,10 +1241,10 @@
       </c>
     </row>
     <row r="24" spans="1:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B24" s="26">
+      <c r="A24" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24" s="27">
         <v>2017</v>
       </c>
       <c r="C24" s="24">
@@ -1249,10 +1255,10 @@
       </c>
     </row>
     <row r="25" spans="1:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B25" s="26">
+      <c r="A25" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" s="27">
         <v>2016</v>
       </c>
       <c r="C25" s="24">
@@ -1263,10 +1269,10 @@
       </c>
     </row>
     <row r="26" spans="1:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B26" s="26">
+      <c r="A26" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26" s="27">
         <v>2015</v>
       </c>
       <c r="C26" s="24">
@@ -1277,10 +1283,10 @@
       </c>
     </row>
     <row r="27" spans="1:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B27" s="26">
+      <c r="A27" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27" s="27">
         <v>2014</v>
       </c>
       <c r="C27" s="24">
@@ -1291,10 +1297,10 @@
       </c>
     </row>
     <row r="28" spans="1:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B28" s="26">
+      <c r="A28" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="B28" s="27">
         <v>2013</v>
       </c>
       <c r="C28" s="24">
@@ -1305,10 +1311,10 @@
       </c>
     </row>
     <row r="29" spans="1:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B29" s="26">
+      <c r="A29" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="B29" s="27">
         <v>2012</v>
       </c>
       <c r="C29" s="24">
@@ -1319,10 +1325,10 @@
       </c>
     </row>
     <row r="30" spans="1:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B30" s="26">
+      <c r="A30" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="B30" s="27">
         <v>2011</v>
       </c>
       <c r="C30" s="24">
@@ -1333,10 +1339,10 @@
       </c>
     </row>
     <row r="31" spans="1:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B31" s="26">
+      <c r="A31" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="B31" s="27">
         <v>2010</v>
       </c>
       <c r="C31" s="24">
@@ -1348,9 +1354,9 @@
     </row>
     <row r="32" spans="1:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B32" s="26">
+        <v>15</v>
+      </c>
+      <c r="B32" s="27">
         <v>2019</v>
       </c>
       <c r="C32" s="24">
@@ -1362,9 +1368,9 @@
     </row>
     <row r="33" spans="1:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B33" s="26">
+        <v>15</v>
+      </c>
+      <c r="B33" s="27">
         <v>2018</v>
       </c>
       <c r="C33" s="24">
@@ -1376,9 +1382,9 @@
     </row>
     <row r="34" spans="1:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B34" s="26">
+        <v>15</v>
+      </c>
+      <c r="B34" s="27">
         <v>2017</v>
       </c>
       <c r="C34" s="24">
@@ -1390,9 +1396,9 @@
     </row>
     <row r="35" spans="1:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B35" s="26">
+        <v>15</v>
+      </c>
+      <c r="B35" s="27">
         <v>2016</v>
       </c>
       <c r="C35" s="24">
@@ -1404,9 +1410,9 @@
     </row>
     <row r="36" spans="1:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B36" s="26">
+        <v>15</v>
+      </c>
+      <c r="B36" s="27">
         <v>2015</v>
       </c>
       <c r="C36" s="24">
@@ -1418,9 +1424,9 @@
     </row>
     <row r="37" spans="1:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B37" s="26">
+        <v>15</v>
+      </c>
+      <c r="B37" s="27">
         <v>2014</v>
       </c>
       <c r="C37" s="24">
@@ -1432,9 +1438,9 @@
     </row>
     <row r="38" spans="1:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B38" s="26">
+        <v>15</v>
+      </c>
+      <c r="B38" s="27">
         <v>2013</v>
       </c>
       <c r="C38" s="24">
@@ -1446,9 +1452,9 @@
     </row>
     <row r="39" spans="1:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B39" s="26">
+        <v>15</v>
+      </c>
+      <c r="B39" s="27">
         <v>2012</v>
       </c>
       <c r="C39" s="24">
@@ -1460,9 +1466,9 @@
     </row>
     <row r="40" spans="1:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B40" s="26">
+        <v>15</v>
+      </c>
+      <c r="B40" s="27">
         <v>2011</v>
       </c>
       <c r="C40" s="24">
@@ -1474,9 +1480,9 @@
     </row>
     <row r="41" spans="1:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B41" s="26">
+        <v>15</v>
+      </c>
+      <c r="B41" s="27">
         <v>2010</v>
       </c>
       <c r="C41" s="24">
@@ -1487,10 +1493,10 @@
       </c>
     </row>
     <row r="42" spans="1:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B42" s="26">
+      <c r="A42" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="B42" s="27">
         <v>2019</v>
       </c>
       <c r="C42" s="24">
@@ -1501,10 +1507,10 @@
       </c>
     </row>
     <row r="43" spans="1:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B43" s="26">
+      <c r="A43" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="B43" s="27">
         <v>2018</v>
       </c>
       <c r="C43" s="24">
@@ -1515,10 +1521,10 @@
       </c>
     </row>
     <row r="44" spans="1:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B44" s="26">
+      <c r="A44" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="B44" s="27">
         <v>2017</v>
       </c>
       <c r="C44" s="24">
@@ -1529,10 +1535,10 @@
       </c>
     </row>
     <row r="45" spans="1:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B45" s="26">
+      <c r="A45" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="B45" s="27">
         <v>2016</v>
       </c>
       <c r="C45" s="24">
@@ -1543,10 +1549,10 @@
       </c>
     </row>
     <row r="46" spans="1:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B46" s="26">
+      <c r="A46" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="B46" s="27">
         <v>2015</v>
       </c>
       <c r="C46" s="24">
@@ -1557,10 +1563,10 @@
       </c>
     </row>
     <row r="47" spans="1:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B47" s="26">
+      <c r="A47" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="B47" s="27">
         <v>2014</v>
       </c>
       <c r="C47" s="24">
@@ -1571,10 +1577,10 @@
       </c>
     </row>
     <row r="48" spans="1:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B48" s="26">
+      <c r="A48" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="B48" s="27">
         <v>2013</v>
       </c>
       <c r="C48" s="24">
@@ -1585,10 +1591,10 @@
       </c>
     </row>
     <row r="49" spans="1:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B49" s="26">
+      <c r="A49" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="B49" s="27">
         <v>2012</v>
       </c>
       <c r="C49" s="24">
@@ -1599,10 +1605,10 @@
       </c>
     </row>
     <row r="50" spans="1:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B50" s="26">
+      <c r="A50" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="B50" s="27">
         <v>2011</v>
       </c>
       <c r="C50" s="24">
@@ -1613,10 +1619,10 @@
       </c>
     </row>
     <row r="51" spans="1:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B51" s="26">
+      <c r="A51" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="B51" s="27">
         <v>2010</v>
       </c>
       <c r="C51" s="24">
@@ -1628,9 +1634,9 @@
     </row>
     <row r="52" spans="1:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B52" s="26">
+        <v>16</v>
+      </c>
+      <c r="B52" s="27">
         <v>2019</v>
       </c>
       <c r="C52" s="24">
@@ -1642,9 +1648,9 @@
     </row>
     <row r="53" spans="1:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B53" s="26">
+        <v>16</v>
+      </c>
+      <c r="B53" s="27">
         <v>2018</v>
       </c>
       <c r="C53" s="24">
@@ -1656,9 +1662,9 @@
     </row>
     <row r="54" spans="1:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B54" s="26">
+        <v>16</v>
+      </c>
+      <c r="B54" s="27">
         <v>2017</v>
       </c>
       <c r="C54" s="24">
@@ -1670,9 +1676,9 @@
     </row>
     <row r="55" spans="1:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B55" s="26">
+        <v>16</v>
+      </c>
+      <c r="B55" s="27">
         <v>2016</v>
       </c>
       <c r="C55" s="24">
@@ -1684,9 +1690,9 @@
     </row>
     <row r="56" spans="1:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B56" s="26">
+        <v>16</v>
+      </c>
+      <c r="B56" s="27">
         <v>2015</v>
       </c>
       <c r="C56" s="24">
@@ -1698,9 +1704,9 @@
     </row>
     <row r="57" spans="1:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B57" s="26">
+        <v>16</v>
+      </c>
+      <c r="B57" s="27">
         <v>2014</v>
       </c>
       <c r="C57" s="24">
@@ -1712,9 +1718,9 @@
     </row>
     <row r="58" spans="1:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B58" s="26">
+        <v>16</v>
+      </c>
+      <c r="B58" s="27">
         <v>2013</v>
       </c>
       <c r="C58" s="24">
@@ -1726,9 +1732,9 @@
     </row>
     <row r="59" spans="1:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B59" s="26">
+        <v>16</v>
+      </c>
+      <c r="B59" s="27">
         <v>2012</v>
       </c>
       <c r="C59" s="24">
@@ -1740,9 +1746,9 @@
     </row>
     <row r="60" spans="1:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B60" s="26">
+        <v>16</v>
+      </c>
+      <c r="B60" s="27">
         <v>2011</v>
       </c>
       <c r="C60" s="24">
@@ -1754,9 +1760,9 @@
     </row>
     <row r="61" spans="1:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B61" s="26">
+        <v>16</v>
+      </c>
+      <c r="B61" s="27">
         <v>2010</v>
       </c>
       <c r="C61" s="24">
@@ -1768,9 +1774,9 @@
     </row>
     <row r="62" spans="1:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B62" s="26">
+        <v>17</v>
+      </c>
+      <c r="B62" s="27">
         <v>2019</v>
       </c>
       <c r="C62" s="24">
@@ -1782,9 +1788,9 @@
     </row>
     <row r="63" spans="1:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B63" s="26">
+        <v>17</v>
+      </c>
+      <c r="B63" s="27">
         <v>2018</v>
       </c>
       <c r="C63" s="24">
@@ -1796,9 +1802,9 @@
     </row>
     <row r="64" spans="1:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B64" s="26">
+        <v>17</v>
+      </c>
+      <c r="B64" s="27">
         <v>2017</v>
       </c>
       <c r="C64" s="24">
@@ -1810,9 +1816,9 @@
     </row>
     <row r="65" spans="1:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B65" s="26">
+        <v>17</v>
+      </c>
+      <c r="B65" s="27">
         <v>2016</v>
       </c>
       <c r="C65" s="24">
@@ -1824,9 +1830,9 @@
     </row>
     <row r="66" spans="1:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B66" s="26">
+        <v>17</v>
+      </c>
+      <c r="B66" s="27">
         <v>2015</v>
       </c>
       <c r="C66" s="24">
@@ -1838,9 +1844,9 @@
     </row>
     <row r="67" spans="1:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B67" s="26">
+        <v>17</v>
+      </c>
+      <c r="B67" s="27">
         <v>2014</v>
       </c>
       <c r="C67" s="24">
@@ -1852,9 +1858,9 @@
     </row>
     <row r="68" spans="1:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B68" s="26">
+        <v>17</v>
+      </c>
+      <c r="B68" s="27">
         <v>2013</v>
       </c>
       <c r="C68" s="24">
@@ -1866,9 +1872,9 @@
     </row>
     <row r="69" spans="1:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B69" s="26">
+        <v>17</v>
+      </c>
+      <c r="B69" s="27">
         <v>2012</v>
       </c>
       <c r="C69" s="24">
@@ -1880,9 +1886,9 @@
     </row>
     <row r="70" spans="1:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B70" s="26">
+        <v>17</v>
+      </c>
+      <c r="B70" s="27">
         <v>2011</v>
       </c>
       <c r="C70" s="24">
@@ -1894,9 +1900,9 @@
     </row>
     <row r="71" spans="1:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B71" s="26">
+        <v>17</v>
+      </c>
+      <c r="B71" s="27">
         <v>2010</v>
       </c>
       <c r="C71" s="24">
@@ -1907,10 +1913,10 @@
       </c>
     </row>
     <row r="72" spans="1:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B72" s="26">
+      <c r="A72" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="B72" s="27">
         <v>2019</v>
       </c>
       <c r="C72" s="24">
@@ -1921,10 +1927,10 @@
       </c>
     </row>
     <row r="73" spans="1:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B73" s="26">
+      <c r="A73" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="B73" s="27">
         <v>2018</v>
       </c>
       <c r="C73" s="24">
@@ -1935,10 +1941,10 @@
       </c>
     </row>
     <row r="74" spans="1:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B74" s="26">
+      <c r="A74" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="B74" s="27">
         <v>2017</v>
       </c>
       <c r="C74" s="24">
@@ -1949,10 +1955,10 @@
       </c>
     </row>
     <row r="75" spans="1:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B75" s="26">
+      <c r="A75" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="B75" s="27">
         <v>2016</v>
       </c>
       <c r="C75" s="24">
@@ -1963,10 +1969,10 @@
       </c>
     </row>
     <row r="76" spans="1:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B76" s="26">
+      <c r="A76" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="B76" s="27">
         <v>2015</v>
       </c>
       <c r="C76" s="24">
@@ -1977,10 +1983,10 @@
       </c>
     </row>
     <row r="77" spans="1:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B77" s="26">
+      <c r="A77" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="B77" s="27">
         <v>2014</v>
       </c>
       <c r="C77" s="24">
@@ -1991,10 +1997,10 @@
       </c>
     </row>
     <row r="78" spans="1:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B78" s="26">
+      <c r="A78" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="B78" s="27">
         <v>2013</v>
       </c>
       <c r="C78" s="24">
@@ -2005,10 +2011,10 @@
       </c>
     </row>
     <row r="79" spans="1:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B79" s="26">
+      <c r="A79" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="B79" s="27">
         <v>2012</v>
       </c>
       <c r="C79" s="24">
@@ -2019,10 +2025,10 @@
       </c>
     </row>
     <row r="80" spans="1:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B80" s="26">
+      <c r="A80" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="B80" s="27">
         <v>2011</v>
       </c>
       <c r="C80" s="24">
@@ -2033,10 +2039,10 @@
       </c>
     </row>
     <row r="81" spans="1:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B81" s="26">
+      <c r="A81" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="B81" s="27">
         <v>2010</v>
       </c>
       <c r="C81" s="24">
@@ -2048,9 +2054,9 @@
     </row>
     <row r="82" spans="1:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B82" s="26">
+        <v>18</v>
+      </c>
+      <c r="B82" s="27">
         <v>2019</v>
       </c>
       <c r="C82" s="24">
@@ -2062,9 +2068,9 @@
     </row>
     <row r="83" spans="1:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B83" s="26">
+        <v>18</v>
+      </c>
+      <c r="B83" s="27">
         <v>2018</v>
       </c>
       <c r="C83" s="24">
@@ -2076,9 +2082,9 @@
     </row>
     <row r="84" spans="1:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B84" s="26">
+        <v>18</v>
+      </c>
+      <c r="B84" s="27">
         <v>2017</v>
       </c>
       <c r="C84" s="24">
@@ -2090,9 +2096,9 @@
     </row>
     <row r="85" spans="1:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B85" s="26">
+        <v>18</v>
+      </c>
+      <c r="B85" s="27">
         <v>2016</v>
       </c>
       <c r="C85" s="24">
@@ -2104,9 +2110,9 @@
     </row>
     <row r="86" spans="1:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B86" s="26">
+        <v>18</v>
+      </c>
+      <c r="B86" s="27">
         <v>2015</v>
       </c>
       <c r="C86" s="24">
@@ -2118,9 +2124,9 @@
     </row>
     <row r="87" spans="1:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B87" s="26">
+        <v>18</v>
+      </c>
+      <c r="B87" s="27">
         <v>2014</v>
       </c>
       <c r="C87" s="24">
@@ -2132,9 +2138,9 @@
     </row>
     <row r="88" spans="1:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B88" s="26">
+        <v>18</v>
+      </c>
+      <c r="B88" s="27">
         <v>2013</v>
       </c>
       <c r="C88" s="24">
@@ -2146,9 +2152,9 @@
     </row>
     <row r="89" spans="1:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A89" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B89" s="26">
+        <v>18</v>
+      </c>
+      <c r="B89" s="27">
         <v>2012</v>
       </c>
       <c r="C89" s="24">
@@ -2160,9 +2166,9 @@
     </row>
     <row r="90" spans="1:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B90" s="26">
+        <v>18</v>
+      </c>
+      <c r="B90" s="27">
         <v>2011</v>
       </c>
       <c r="C90" s="24">
@@ -2174,9 +2180,9 @@
     </row>
     <row r="91" spans="1:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B91" s="26">
+        <v>18</v>
+      </c>
+      <c r="B91" s="27">
         <v>2010</v>
       </c>
       <c r="C91" s="24">
@@ -2188,9 +2194,9 @@
     </row>
     <row r="92" spans="1:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="B92" s="26">
+        <v>19</v>
+      </c>
+      <c r="B92" s="27">
         <v>2019</v>
       </c>
       <c r="C92" s="24">
@@ -2202,9 +2208,9 @@
     </row>
     <row r="93" spans="1:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="B93" s="26">
+        <v>19</v>
+      </c>
+      <c r="B93" s="27">
         <v>2018</v>
       </c>
       <c r="C93" s="24">
@@ -2216,9 +2222,9 @@
     </row>
     <row r="94" spans="1:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="B94" s="26">
+        <v>19</v>
+      </c>
+      <c r="B94" s="27">
         <v>2017</v>
       </c>
       <c r="C94" s="24">
@@ -2230,9 +2236,9 @@
     </row>
     <row r="95" spans="1:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="B95" s="26">
+        <v>19</v>
+      </c>
+      <c r="B95" s="27">
         <v>2016</v>
       </c>
       <c r="C95" s="24">
@@ -2244,9 +2250,9 @@
     </row>
     <row r="96" spans="1:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="B96" s="26">
+        <v>19</v>
+      </c>
+      <c r="B96" s="27">
         <v>2015</v>
       </c>
       <c r="C96" s="24">
@@ -2258,9 +2264,9 @@
     </row>
     <row r="97" spans="1:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A97" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="B97" s="26">
+        <v>19</v>
+      </c>
+      <c r="B97" s="27">
         <v>2014</v>
       </c>
       <c r="C97" s="24">
@@ -2272,9 +2278,9 @@
     </row>
     <row r="98" spans="1:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="B98" s="26">
+        <v>19</v>
+      </c>
+      <c r="B98" s="27">
         <v>2013</v>
       </c>
       <c r="C98" s="24">
@@ -2286,9 +2292,9 @@
     </row>
     <row r="99" spans="1:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A99" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="B99" s="26">
+        <v>19</v>
+      </c>
+      <c r="B99" s="27">
         <v>2012</v>
       </c>
       <c r="C99" s="24">
@@ -2300,9 +2306,9 @@
     </row>
     <row r="100" spans="1:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A100" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="B100" s="26">
+        <v>19</v>
+      </c>
+      <c r="B100" s="27">
         <v>2011</v>
       </c>
       <c r="C100" s="24">
@@ -2314,9 +2320,9 @@
     </row>
     <row r="101" spans="1:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A101" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="B101" s="26">
+        <v>19</v>
+      </c>
+      <c r="B101" s="27">
         <v>2010</v>
       </c>
       <c r="C101" s="24">
@@ -2328,9 +2334,9 @@
     </row>
     <row r="102" spans="1:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A102" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="B102" s="26">
+        <v>20</v>
+      </c>
+      <c r="B102" s="27">
         <v>2019</v>
       </c>
       <c r="C102" s="24">
@@ -2342,9 +2348,9 @@
     </row>
     <row r="103" spans="1:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A103" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="B103" s="26">
+        <v>20</v>
+      </c>
+      <c r="B103" s="27">
         <v>2018</v>
       </c>
       <c r="C103" s="24">
@@ -2356,9 +2362,9 @@
     </row>
     <row r="104" spans="1:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="B104" s="26">
+        <v>20</v>
+      </c>
+      <c r="B104" s="27">
         <v>2017</v>
       </c>
       <c r="C104" s="24">
@@ -2370,9 +2376,9 @@
     </row>
     <row r="105" spans="1:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A105" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="B105" s="26">
+        <v>20</v>
+      </c>
+      <c r="B105" s="27">
         <v>2016</v>
       </c>
       <c r="C105" s="24">
@@ -2384,9 +2390,9 @@
     </row>
     <row r="106" spans="1:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A106" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="B106" s="26">
+        <v>20</v>
+      </c>
+      <c r="B106" s="27">
         <v>2015</v>
       </c>
       <c r="C106" s="24">
@@ -2398,9 +2404,9 @@
     </row>
     <row r="107" spans="1:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A107" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="B107" s="26">
+        <v>20</v>
+      </c>
+      <c r="B107" s="27">
         <v>2014</v>
       </c>
       <c r="C107" s="24">
@@ -2412,9 +2418,9 @@
     </row>
     <row r="108" spans="1:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A108" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="B108" s="26">
+        <v>20</v>
+      </c>
+      <c r="B108" s="27">
         <v>2013</v>
       </c>
       <c r="C108" s="24">
@@ -2426,9 +2432,9 @@
     </row>
     <row r="109" spans="1:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A109" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="B109" s="26">
+        <v>20</v>
+      </c>
+      <c r="B109" s="27">
         <v>2012</v>
       </c>
       <c r="C109" s="24">
@@ -2440,9 +2446,9 @@
     </row>
     <row r="110" spans="1:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A110" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="B110" s="26">
+        <v>20</v>
+      </c>
+      <c r="B110" s="27">
         <v>2011</v>
       </c>
       <c r="C110" s="24">
@@ -2454,9 +2460,9 @@
     </row>
     <row r="111" spans="1:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A111" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="B111" s="26">
+        <v>20</v>
+      </c>
+      <c r="B111" s="27">
         <v>2010</v>
       </c>
       <c r="C111" s="24">
@@ -2468,9 +2474,9 @@
     </row>
     <row r="112" spans="1:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A112" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="B112" s="26">
+        <v>21</v>
+      </c>
+      <c r="B112" s="27">
         <v>2019</v>
       </c>
       <c r="C112" s="24">
@@ -2482,9 +2488,9 @@
     </row>
     <row r="113" spans="1:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A113" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="B113" s="26">
+        <v>21</v>
+      </c>
+      <c r="B113" s="27">
         <v>2018</v>
       </c>
       <c r="C113" s="24">
@@ -2496,9 +2502,9 @@
     </row>
     <row r="114" spans="1:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A114" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="B114" s="26">
+        <v>21</v>
+      </c>
+      <c r="B114" s="27">
         <v>2017</v>
       </c>
       <c r="C114" s="24">
@@ -2510,9 +2516,9 @@
     </row>
     <row r="115" spans="1:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A115" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="B115" s="26">
+        <v>21</v>
+      </c>
+      <c r="B115" s="27">
         <v>2016</v>
       </c>
       <c r="C115" s="24">
@@ -2524,9 +2530,9 @@
     </row>
     <row r="116" spans="1:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A116" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="B116" s="26">
+        <v>21</v>
+      </c>
+      <c r="B116" s="27">
         <v>2015</v>
       </c>
       <c r="C116" s="24">
@@ -2538,9 +2544,9 @@
     </row>
     <row r="117" spans="1:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A117" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="B117" s="26">
+        <v>21</v>
+      </c>
+      <c r="B117" s="27">
         <v>2014</v>
       </c>
       <c r="C117" s="24">
@@ -2552,9 +2558,9 @@
     </row>
     <row r="118" spans="1:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A118" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="B118" s="26">
+        <v>21</v>
+      </c>
+      <c r="B118" s="27">
         <v>2013</v>
       </c>
       <c r="C118" s="24">
@@ -2566,9 +2572,9 @@
     </row>
     <row r="119" spans="1:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A119" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="B119" s="26">
+        <v>21</v>
+      </c>
+      <c r="B119" s="27">
         <v>2012</v>
       </c>
       <c r="C119" s="24">
@@ -2580,9 +2586,9 @@
     </row>
     <row r="120" spans="1:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A120" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="B120" s="26">
+        <v>21</v>
+      </c>
+      <c r="B120" s="27">
         <v>2011</v>
       </c>
       <c r="C120" s="24">
@@ -2594,9 +2600,9 @@
     </row>
     <row r="121" spans="1:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A121" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="B121" s="26">
+        <v>21</v>
+      </c>
+      <c r="B121" s="27">
         <v>2010</v>
       </c>
       <c r="C121" s="24">
@@ -2608,9 +2614,9 @@
     </row>
     <row r="122" spans="1:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A122" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="B122" s="26">
+        <v>22</v>
+      </c>
+      <c r="B122" s="27">
         <v>2019</v>
       </c>
       <c r="C122" s="24">
@@ -2622,9 +2628,9 @@
     </row>
     <row r="123" spans="1:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A123" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="B123" s="26">
+        <v>22</v>
+      </c>
+      <c r="B123" s="27">
         <v>2018</v>
       </c>
       <c r="C123" s="24">
@@ -2636,9 +2642,9 @@
     </row>
     <row r="124" spans="1:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A124" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="B124" s="26">
+        <v>22</v>
+      </c>
+      <c r="B124" s="27">
         <v>2017</v>
       </c>
       <c r="C124" s="24">
@@ -2650,9 +2656,9 @@
     </row>
     <row r="125" spans="1:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A125" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="B125" s="26">
+        <v>22</v>
+      </c>
+      <c r="B125" s="27">
         <v>2016</v>
       </c>
       <c r="C125" s="24">
@@ -2664,9 +2670,9 @@
     </row>
     <row r="126" spans="1:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A126" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="B126" s="26">
+        <v>22</v>
+      </c>
+      <c r="B126" s="27">
         <v>2015</v>
       </c>
       <c r="C126" s="24">
@@ -2678,9 +2684,9 @@
     </row>
     <row r="127" spans="1:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A127" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="B127" s="26">
+        <v>22</v>
+      </c>
+      <c r="B127" s="27">
         <v>2014</v>
       </c>
       <c r="C127" s="24">
@@ -2692,9 +2698,9 @@
     </row>
     <row r="128" spans="1:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A128" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="B128" s="26">
+        <v>22</v>
+      </c>
+      <c r="B128" s="27">
         <v>2013</v>
       </c>
       <c r="C128" s="24">
@@ -2706,9 +2712,9 @@
     </row>
     <row r="129" spans="1:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A129" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="B129" s="26">
+        <v>22</v>
+      </c>
+      <c r="B129" s="27">
         <v>2012</v>
       </c>
       <c r="C129" s="24">
@@ -2720,9 +2726,9 @@
     </row>
     <row r="130" spans="1:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A130" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="B130" s="26">
+        <v>22</v>
+      </c>
+      <c r="B130" s="27">
         <v>2011</v>
       </c>
       <c r="C130" s="24">
@@ -2734,9 +2740,9 @@
     </row>
     <row r="131" spans="1:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A131" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="B131" s="26">
+        <v>22</v>
+      </c>
+      <c r="B131" s="27">
         <v>2010</v>
       </c>
       <c r="C131" s="24">
@@ -2748,123 +2754,6 @@
     </row>
   </sheetData>
   <mergeCells count="130">
-    <mergeCell ref="B2"/>
-    <mergeCell ref="B3"/>
-    <mergeCell ref="B4"/>
-    <mergeCell ref="B5"/>
-    <mergeCell ref="B6"/>
-    <mergeCell ref="B7"/>
-    <mergeCell ref="B8"/>
-    <mergeCell ref="B9"/>
-    <mergeCell ref="B10"/>
-    <mergeCell ref="B11"/>
-    <mergeCell ref="B12"/>
-    <mergeCell ref="B13"/>
-    <mergeCell ref="B14"/>
-    <mergeCell ref="B15"/>
-    <mergeCell ref="B16"/>
-    <mergeCell ref="B17"/>
-    <mergeCell ref="B18"/>
-    <mergeCell ref="B19"/>
-    <mergeCell ref="B20"/>
-    <mergeCell ref="B21"/>
-    <mergeCell ref="B22"/>
-    <mergeCell ref="B23"/>
-    <mergeCell ref="B24"/>
-    <mergeCell ref="B25"/>
-    <mergeCell ref="B26"/>
-    <mergeCell ref="B27"/>
-    <mergeCell ref="B28"/>
-    <mergeCell ref="B29"/>
-    <mergeCell ref="B30"/>
-    <mergeCell ref="B31"/>
-    <mergeCell ref="B32"/>
-    <mergeCell ref="B33"/>
-    <mergeCell ref="B34"/>
-    <mergeCell ref="B35"/>
-    <mergeCell ref="B36"/>
-    <mergeCell ref="B37"/>
-    <mergeCell ref="B38"/>
-    <mergeCell ref="B39"/>
-    <mergeCell ref="B40"/>
-    <mergeCell ref="B41"/>
-    <mergeCell ref="B42"/>
-    <mergeCell ref="B43"/>
-    <mergeCell ref="B44"/>
-    <mergeCell ref="B45"/>
-    <mergeCell ref="B46"/>
-    <mergeCell ref="B47"/>
-    <mergeCell ref="B48"/>
-    <mergeCell ref="B49"/>
-    <mergeCell ref="B50"/>
-    <mergeCell ref="B51"/>
-    <mergeCell ref="B52"/>
-    <mergeCell ref="B53"/>
-    <mergeCell ref="B54"/>
-    <mergeCell ref="B55"/>
-    <mergeCell ref="B56"/>
-    <mergeCell ref="B57"/>
-    <mergeCell ref="B58"/>
-    <mergeCell ref="B59"/>
-    <mergeCell ref="B60"/>
-    <mergeCell ref="B61"/>
-    <mergeCell ref="B62"/>
-    <mergeCell ref="B63"/>
-    <mergeCell ref="B64"/>
-    <mergeCell ref="B65"/>
-    <mergeCell ref="B66"/>
-    <mergeCell ref="B67"/>
-    <mergeCell ref="B68"/>
-    <mergeCell ref="B69"/>
-    <mergeCell ref="B70"/>
-    <mergeCell ref="B71"/>
-    <mergeCell ref="B72"/>
-    <mergeCell ref="B73"/>
-    <mergeCell ref="B74"/>
-    <mergeCell ref="B75"/>
-    <mergeCell ref="B76"/>
-    <mergeCell ref="B77"/>
-    <mergeCell ref="B78"/>
-    <mergeCell ref="B79"/>
-    <mergeCell ref="B80"/>
-    <mergeCell ref="B81"/>
-    <mergeCell ref="B82"/>
-    <mergeCell ref="B83"/>
-    <mergeCell ref="B84"/>
-    <mergeCell ref="B85"/>
-    <mergeCell ref="B86"/>
-    <mergeCell ref="B87"/>
-    <mergeCell ref="B88"/>
-    <mergeCell ref="B89"/>
-    <mergeCell ref="B90"/>
-    <mergeCell ref="B91"/>
-    <mergeCell ref="B92"/>
-    <mergeCell ref="B93"/>
-    <mergeCell ref="B94"/>
-    <mergeCell ref="B95"/>
-    <mergeCell ref="B96"/>
-    <mergeCell ref="B97"/>
-    <mergeCell ref="B98"/>
-    <mergeCell ref="B99"/>
-    <mergeCell ref="B100"/>
-    <mergeCell ref="B101"/>
-    <mergeCell ref="B102"/>
-    <mergeCell ref="B103"/>
-    <mergeCell ref="B104"/>
-    <mergeCell ref="B105"/>
-    <mergeCell ref="B106"/>
-    <mergeCell ref="B107"/>
-    <mergeCell ref="B108"/>
-    <mergeCell ref="B109"/>
-    <mergeCell ref="B110"/>
-    <mergeCell ref="B111"/>
-    <mergeCell ref="B122"/>
-    <mergeCell ref="B123"/>
-    <mergeCell ref="B124"/>
-    <mergeCell ref="B125"/>
-    <mergeCell ref="B126"/>
-    <mergeCell ref="B127"/>
-    <mergeCell ref="B128"/>
     <mergeCell ref="B129"/>
     <mergeCell ref="B130"/>
     <mergeCell ref="B131"/>
@@ -2878,6 +2767,123 @@
     <mergeCell ref="B119"/>
     <mergeCell ref="B120"/>
     <mergeCell ref="B121"/>
+    <mergeCell ref="B110"/>
+    <mergeCell ref="B111"/>
+    <mergeCell ref="B122"/>
+    <mergeCell ref="B123"/>
+    <mergeCell ref="B124"/>
+    <mergeCell ref="B125"/>
+    <mergeCell ref="B126"/>
+    <mergeCell ref="B127"/>
+    <mergeCell ref="B128"/>
+    <mergeCell ref="B101"/>
+    <mergeCell ref="B102"/>
+    <mergeCell ref="B103"/>
+    <mergeCell ref="B104"/>
+    <mergeCell ref="B105"/>
+    <mergeCell ref="B106"/>
+    <mergeCell ref="B107"/>
+    <mergeCell ref="B108"/>
+    <mergeCell ref="B109"/>
+    <mergeCell ref="B92"/>
+    <mergeCell ref="B93"/>
+    <mergeCell ref="B94"/>
+    <mergeCell ref="B95"/>
+    <mergeCell ref="B96"/>
+    <mergeCell ref="B97"/>
+    <mergeCell ref="B98"/>
+    <mergeCell ref="B99"/>
+    <mergeCell ref="B100"/>
+    <mergeCell ref="B83"/>
+    <mergeCell ref="B84"/>
+    <mergeCell ref="B85"/>
+    <mergeCell ref="B86"/>
+    <mergeCell ref="B87"/>
+    <mergeCell ref="B88"/>
+    <mergeCell ref="B89"/>
+    <mergeCell ref="B90"/>
+    <mergeCell ref="B91"/>
+    <mergeCell ref="B74"/>
+    <mergeCell ref="B75"/>
+    <mergeCell ref="B76"/>
+    <mergeCell ref="B77"/>
+    <mergeCell ref="B78"/>
+    <mergeCell ref="B79"/>
+    <mergeCell ref="B80"/>
+    <mergeCell ref="B81"/>
+    <mergeCell ref="B82"/>
+    <mergeCell ref="B65"/>
+    <mergeCell ref="B66"/>
+    <mergeCell ref="B67"/>
+    <mergeCell ref="B68"/>
+    <mergeCell ref="B69"/>
+    <mergeCell ref="B70"/>
+    <mergeCell ref="B71"/>
+    <mergeCell ref="B72"/>
+    <mergeCell ref="B73"/>
+    <mergeCell ref="B56"/>
+    <mergeCell ref="B57"/>
+    <mergeCell ref="B58"/>
+    <mergeCell ref="B59"/>
+    <mergeCell ref="B60"/>
+    <mergeCell ref="B61"/>
+    <mergeCell ref="B62"/>
+    <mergeCell ref="B63"/>
+    <mergeCell ref="B64"/>
+    <mergeCell ref="B47"/>
+    <mergeCell ref="B48"/>
+    <mergeCell ref="B49"/>
+    <mergeCell ref="B50"/>
+    <mergeCell ref="B51"/>
+    <mergeCell ref="B52"/>
+    <mergeCell ref="B53"/>
+    <mergeCell ref="B54"/>
+    <mergeCell ref="B55"/>
+    <mergeCell ref="B38"/>
+    <mergeCell ref="B39"/>
+    <mergeCell ref="B40"/>
+    <mergeCell ref="B41"/>
+    <mergeCell ref="B42"/>
+    <mergeCell ref="B43"/>
+    <mergeCell ref="B44"/>
+    <mergeCell ref="B45"/>
+    <mergeCell ref="B46"/>
+    <mergeCell ref="B29"/>
+    <mergeCell ref="B30"/>
+    <mergeCell ref="B31"/>
+    <mergeCell ref="B32"/>
+    <mergeCell ref="B33"/>
+    <mergeCell ref="B34"/>
+    <mergeCell ref="B35"/>
+    <mergeCell ref="B36"/>
+    <mergeCell ref="B37"/>
+    <mergeCell ref="B20"/>
+    <mergeCell ref="B21"/>
+    <mergeCell ref="B22"/>
+    <mergeCell ref="B23"/>
+    <mergeCell ref="B24"/>
+    <mergeCell ref="B25"/>
+    <mergeCell ref="B26"/>
+    <mergeCell ref="B27"/>
+    <mergeCell ref="B28"/>
+    <mergeCell ref="B11"/>
+    <mergeCell ref="B12"/>
+    <mergeCell ref="B13"/>
+    <mergeCell ref="B14"/>
+    <mergeCell ref="B15"/>
+    <mergeCell ref="B16"/>
+    <mergeCell ref="B17"/>
+    <mergeCell ref="B18"/>
+    <mergeCell ref="B19"/>
+    <mergeCell ref="B2"/>
+    <mergeCell ref="B3"/>
+    <mergeCell ref="B4"/>
+    <mergeCell ref="B5"/>
+    <mergeCell ref="B6"/>
+    <mergeCell ref="B7"/>
+    <mergeCell ref="B8"/>
+    <mergeCell ref="B9"/>
+    <mergeCell ref="B10"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
